--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_Sieve Bootstrap_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_Sieve Bootstrap_Lineal_No_Estacionario_ARIMA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>N_Calib_1</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Sí</t>
   </si>
 </sst>
 </file>
@@ -441,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.6292467328914017</v>
+        <v>0.5807659188019426</v>
       </c>
       <c r="D2">
-        <v>0.5292731424294104</v>
+        <v>0.5673005781462976</v>
       </c>
       <c r="E2">
         <v>0.5700322051076758</v>
@@ -467,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>1.021895744973968</v>
+        <v>0.8954337011701105</v>
       </c>
       <c r="D3">
-        <v>0.3069774602886099</v>
+        <v>0.3802483884933678</v>
       </c>
       <c r="E3">
         <v>0.5700322051076758</v>
@@ -493,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.9015909884672343</v>
+        <v>0.7155932952938638</v>
       </c>
       <c r="D4">
-        <v>0.3674034901042322</v>
+        <v>0.4817690651435216</v>
       </c>
       <c r="E4">
         <v>0.5700322051076758</v>
@@ -519,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>2.074797441745867</v>
+        <v>1.670560058280191</v>
       </c>
       <c r="D5">
-        <v>0.03815732216970935</v>
+        <v>0.1089758933002558</v>
       </c>
       <c r="E5">
         <v>0.5700322051076758</v>
@@ -531,7 +528,7 @@
         <v>0.5366137304080879</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H5">
         <v>200</v>
@@ -545,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.3378293581881477</v>
+        <v>0.299283970472031</v>
       </c>
       <c r="D6">
-        <v>0.735534016835897</v>
+        <v>0.7675324718540257</v>
       </c>
       <c r="E6">
         <v>0.5582106176856452</v>
@@ -571,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0.2390213935279509</v>
+        <v>0.2388927133560056</v>
       </c>
       <c r="D7">
-        <v>0.8111181651119679</v>
+        <v>0.8134001248776319</v>
       </c>
       <c r="E7">
         <v>0.5582106176856452</v>
@@ -597,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>1.657118684536489</v>
+        <v>1.471052863232385</v>
       </c>
       <c r="D8">
-        <v>0.09768230891211127</v>
+        <v>0.1554366365665372</v>
       </c>
       <c r="E8">
         <v>0.5582106176856452</v>
@@ -623,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-0.117964988483422</v>
+        <v>-0.1120529584528923</v>
       </c>
       <c r="D9">
-        <v>0.9061095093750089</v>
+        <v>0.9117975235621527</v>
       </c>
       <c r="E9">
         <v>0.5524024906499132</v>
@@ -649,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>0.966329864908781</v>
+        <v>0.7614368176192444</v>
       </c>
       <c r="D10">
-        <v>0.3340183118632205</v>
+        <v>0.4544816307227166</v>
       </c>
       <c r="E10">
         <v>0.5524024906499132</v>
@@ -675,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>1.161353209513169</v>
+        <v>0.9514691085088003</v>
       </c>
       <c r="D11">
-        <v>0.2456633650301345</v>
+        <v>0.3517033264307048</v>
       </c>
       <c r="E11">
         <v>0.5542126964210297</v>
